--- a/trends/results/table3.xlsx
+++ b/trends/results/table3.xlsx
@@ -28,46 +28,46 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(0.33)</t>
-  </si>
-  <si>
     <t>(0.36)</t>
   </si>
   <si>
-    <t>(0.73)</t>
-  </si>
-  <si>
-    <t>(0.75)</t>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(0.72)</t>
+  </si>
+  <si>
+    <t>(0.93)</t>
+  </si>
+  <si>
+    <t>(1.13)</t>
+  </si>
+  <si>
+    <t>(1.26)</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.57)</t>
+  </si>
+  <si>
+    <t>(0.74)</t>
+  </si>
+  <si>
+    <t>(1.06)</t>
   </si>
   <si>
     <t>(1.0)</t>
   </si>
   <si>
-    <t>(1.09)</t>
-  </si>
-  <si>
-    <t>(1.31)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>(0.25)</t>
-  </si>
-  <si>
-    <t>(0.6)</t>
-  </si>
-  <si>
-    <t>(1.18)</t>
-  </si>
-  <si>
-    <t>(0.99)</t>
-  </si>
-  <si>
-    <t>(0.95)</t>
-  </si>
-  <si>
-    <t>(0.0)</t>
+    <t>(0.92)</t>
+  </si>
+  <si>
+    <t>(0.00001)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>12.55</v>
       </c>
       <c r="E2">
-        <v>0.0858</v>
+        <v>0.085811</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -493,7 +493,7 @@
         <v>13.26</v>
       </c>
       <c r="E4">
-        <v>0.0856</v>
+        <v>0.085566</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -504,10 +504,10 @@
         <v>1992</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -527,7 +527,7 @@
         <v>16.13</v>
       </c>
       <c r="E6">
-        <v>0.0586</v>
+        <v>0.058626</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -538,10 +538,10 @@
         <v>1997</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -561,7 +561,7 @@
         <v>15.66</v>
       </c>
       <c r="E8">
-        <v>0.0558</v>
+        <v>0.05577</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -572,10 +572,10 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -595,7 +595,7 @@
         <v>18.19</v>
       </c>
       <c r="E10">
-        <v>0.0493</v>
+        <v>0.049335</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -606,7 +606,7 @@
         <v>2007</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -629,7 +629,7 @@
         <v>17.32</v>
       </c>
       <c r="E12">
-        <v>0.0538</v>
+        <v>0.053785</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -640,7 +640,7 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -663,7 +663,7 @@
         <v>15.29</v>
       </c>
       <c r="E14">
-        <v>0.0453</v>
+        <v>0.045293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -674,7 +674,7 @@
         <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>

--- a/trends/results/table3.xlsx
+++ b/trends/results/table3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>year range</t>
   </si>
@@ -28,46 +28,55 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(0.36)</t>
-  </si>
-  <si>
-    <t>(0.69)</t>
-  </si>
-  <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
-    <t>(0.93)</t>
-  </si>
-  <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(1.26)</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(0.57)</t>
-  </si>
-  <si>
-    <t>(0.74)</t>
-  </si>
-  <si>
-    <t>(1.06)</t>
-  </si>
-  <si>
-    <t>(1.0)</t>
-  </si>
-  <si>
-    <t>(0.92)</t>
-  </si>
-  <si>
-    <t>(0.00001)</t>
+    <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.83)</t>
+  </si>
+  <si>
+    <t>(0.84)</t>
+  </si>
+  <si>
+    <t>(0.96)</t>
+  </si>
+  <si>
+    <t>(1.02)</t>
+  </si>
+  <si>
+    <t>(1.12)</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.77)</t>
+  </si>
+  <si>
+    <t>(0.99)</t>
+  </si>
+  <si>
+    <t>(0.00265)</t>
+  </si>
+  <si>
+    <t>(0.00276)</t>
+  </si>
+  <si>
+    <t>(0.00257)</t>
+  </si>
+  <si>
+    <t>(0.00261)</t>
+  </si>
+  <si>
+    <t>(0.00235)</t>
+  </si>
+  <si>
+    <t>(0.00255)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +482,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -504,13 +513,13 @@
         <v>1992</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -538,10 +547,10 @@
         <v>1997</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -572,13 +581,13 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -606,13 +615,13 @@
         <v>2007</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -640,13 +649,13 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -674,13 +683,13 @@
         <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
